--- a/New Server.xlsx
+++ b/New Server.xlsx
@@ -24,7 +24,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="8">
     <fill>
       <patternFill patternType="none">
         <fgColor/>
@@ -43,136 +43,8 @@
     <fill/>
     <fill/>
     <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
   </fills>
-  <borders count="23">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -226,7 +98,7 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="7">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="1" fillId="2" fontId="0" numFmtId="22" xfId="0">
       <alignment/>
@@ -244,54 +116,6 @@
       <alignment/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="6" fillId="7" fontId="0" numFmtId="22" xfId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="7" fillId="8" fontId="0" numFmtId="22" xfId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="8" fillId="9" fontId="0" numFmtId="22" xfId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="9" fillId="10" fontId="0" numFmtId="22" xfId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="10" fillId="11" fontId="0" numFmtId="22" xfId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="11" fillId="12" fontId="0" numFmtId="22" xfId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="12" fillId="13" fontId="0" numFmtId="22" xfId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="13" fillId="14" fontId="0" numFmtId="22" xfId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="14" fillId="15" fontId="0" numFmtId="22" xfId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="15" fillId="16" fontId="0" numFmtId="22" xfId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="16" fillId="17" fontId="0" numFmtId="22" xfId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="17" fillId="18" fontId="0" numFmtId="22" xfId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="18" fillId="19" fontId="0" numFmtId="22" xfId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="19" fillId="20" fontId="0" numFmtId="22" xfId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="20" fillId="21" fontId="0" numFmtId="22" xfId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="21" fillId="22" fontId="0" numFmtId="22" xfId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="22" fillId="23" fontId="0" numFmtId="22" xfId="0">
       <alignment/>
     </xf>
   </cellXfs>
@@ -569,10 +393,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>VCS_232</v>
+        <v>VCS_60</v>
       </c>
       <c r="B1" t="str">
-        <v>VCS_SMS_232</v>
+        <v>VCS_SMS_60</v>
       </c>
       <c r="C1" t="str">
         <v>Offline</v>
@@ -581,21 +405,21 @@
         <v>1</v>
       </c>
       <c r="E1" s="1">
-        <v>44858.98785674994</v>
+        <v>44853.38984134547</v>
       </c>
       <c r="F1" s="2">
-        <v>44858.98785674994</v>
+        <v>44853.38984134547</v>
       </c>
       <c r="G1" t="str">
-        <v>212.239.122</v>
+        <v>192.168.1.204</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>VCS_14</v>
+        <v>VCS_6</v>
       </c>
       <c r="B2" t="str">
-        <v>VCS_SMS_14</v>
+        <v>VCS_SMS_6</v>
       </c>
       <c r="C2" t="str">
         <v>Offline</v>
@@ -604,10 +428,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="3">
-        <v>44851.712606201276</v>
+        <v>44853.00662921011</v>
       </c>
       <c r="F2" s="4">
-        <v>44853.38144736701</v>
+        <v>44853.38144860696</v>
       </c>
       <c r="G2" t="str">
         <v>212.239.122</v>
@@ -615,10 +439,10 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>VCS_62</v>
+        <v>VCS_33</v>
       </c>
       <c r="B3" t="str">
-        <v>VCS_SMS_68</v>
+        <v>VCS_SMS_33</v>
       </c>
       <c r="C3" t="str">
         <v>Offline</v>
@@ -627,196 +451,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="5">
-        <v>44851.712606201276</v>
+        <v>44853.00662921011</v>
       </c>
       <c r="F3" s="6">
-        <v>44853.38144747035</v>
+        <v>44853.381448381064</v>
       </c>
       <c r="G3" t="str">
-        <v>212.239.122</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>VCS_13</v>
-      </c>
-      <c r="B4" t="str">
-        <v>VCS_SMS_13</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Offline</v>
-      </c>
-      <c r="D4" t="str">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7">
-        <v>44851.712606201276</v>
-      </c>
-      <c r="F4" s="8">
-        <v>44853.38144779132</v>
-      </c>
-      <c r="G4" t="str">
-        <v>212.239.122</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>VCS_36</v>
-      </c>
-      <c r="B5" t="str">
-        <v>VCS_SMS_36</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Offline</v>
-      </c>
-      <c r="D5" t="str">
-        <v>1</v>
-      </c>
-      <c r="E5" s="9">
-        <v>44851.712606201276</v>
-      </c>
-      <c r="F5" s="10">
-        <v>44853.38144810626</v>
-      </c>
-      <c r="G5" t="str">
-        <v>212.239.122</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>VCS_7</v>
-      </c>
-      <c r="B6" t="str">
-        <v>VCS_SMS_7</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Online</v>
-      </c>
-      <c r="D6" t="str">
-        <v>1</v>
-      </c>
-      <c r="E6" s="11">
-        <v>44851.712606201276</v>
-      </c>
-      <c r="F6" s="12">
-        <v>44853.38144820972</v>
-      </c>
-      <c r="G6" t="str">
-        <v>192.168.1.204</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>VCS_33</v>
-      </c>
-      <c r="B7" t="str">
-        <v>VCS_SMS_33</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Offline</v>
-      </c>
-      <c r="D7" t="str">
-        <v>1</v>
-      </c>
-      <c r="E7" s="13">
-        <v>44853.00662921011</v>
-      </c>
-      <c r="F7" s="14">
-        <v>44853.381448381064</v>
-      </c>
-      <c r="G7" t="str">
-        <v>212.239.122</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>VCS_6</v>
-      </c>
-      <c r="B8" t="str">
-        <v>VCS_SMS_6</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Offline</v>
-      </c>
-      <c r="D8" t="str">
-        <v>1</v>
-      </c>
-      <c r="E8" s="15">
-        <v>44853.00662921011</v>
-      </c>
-      <c r="F8" s="16">
-        <v>44853.38144860696</v>
-      </c>
-      <c r="G8" t="str">
-        <v>212.239.122</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>VCS_60</v>
-      </c>
-      <c r="B9" t="str">
-        <v>VCS_SMS_60</v>
-      </c>
-      <c r="C9" t="str">
-        <v>Offline</v>
-      </c>
-      <c r="D9" t="str">
-        <v>1</v>
-      </c>
-      <c r="E9" s="17">
-        <v>44853.38984134547</v>
-      </c>
-      <c r="F9" s="18">
-        <v>44853.38984134547</v>
-      </c>
-      <c r="G9" t="str">
-        <v>192.168.1.204</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>VCS_22</v>
-      </c>
-      <c r="B10" t="str">
-        <v>VCS_SMS_22</v>
-      </c>
-      <c r="C10" t="str">
-        <v>Offline</v>
-      </c>
-      <c r="D10" t="str">
-        <v>1</v>
-      </c>
-      <c r="E10" s="19">
-        <v>44853.41039192052</v>
-      </c>
-      <c r="F10" s="20">
-        <v>44853.41039192052</v>
-      </c>
-      <c r="G10" t="str">
-        <v>212.239.122</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>VCS_12</v>
-      </c>
-      <c r="B11" t="str">
-        <v>VCS_SMS_12</v>
-      </c>
-      <c r="C11" t="str">
-        <v>Offline</v>
-      </c>
-      <c r="D11" t="str">
-        <v>1</v>
-      </c>
-      <c r="E11" s="21">
-        <v>44858.97150808062</v>
-      </c>
-      <c r="F11" s="22">
-        <v>44858.97150808062</v>
-      </c>
-      <c r="G11" t="str">
         <v>212.239.122</v>
       </c>
     </row>

--- a/New Server.xlsx
+++ b/New Server.xlsx
@@ -393,70 +393,81 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>VCS_60</v>
+        <v>Server ID</v>
       </c>
       <c r="B1" t="str">
-        <v>VCS_SMS_60</v>
+        <v>Server Name</v>
       </c>
       <c r="C1" t="str">
-        <v>Offline</v>
+        <v>Status</v>
       </c>
       <c r="D1" t="str">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1">
-        <v>44853.38984134547</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44853.38984134547</v>
-      </c>
-      <c r="G1" t="str">
-        <v>192.168.1.204</v>
+        <v>Created Time</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Updated Time</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Ipv4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>VCS_6</v>
+        <v>VCS_60</v>
       </c>
       <c r="B2" t="str">
-        <v>VCS_SMS_6</v>
+        <v>VCS_SMS_60</v>
       </c>
       <c r="C2" t="str">
         <v>Offline</v>
       </c>
-      <c r="D2" t="str">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
-        <v>44853.00662921011</v>
-      </c>
-      <c r="F2" s="4">
-        <v>44853.38144860696</v>
-      </c>
-      <c r="G2" t="str">
-        <v>212.239.122</v>
+      <c r="D2" s="1">
+        <v>44853.38984134547</v>
+      </c>
+      <c r="E2" s="2">
+        <v>44853.38984134547</v>
+      </c>
+      <c r="F2" t="str">
+        <v>192.168.1.204</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>VCS_33</v>
+        <v>VCS_6</v>
       </c>
       <c r="B3" t="str">
-        <v>VCS_SMS_33</v>
+        <v>VCS_SMS_6</v>
       </c>
       <c r="C3" t="str">
         <v>Offline</v>
       </c>
-      <c r="D3" t="str">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="D3" s="3">
         <v>44853.00662921011</v>
       </c>
-      <c r="F3" s="6">
+      <c r="E3" s="4">
+        <v>44853.38144860696</v>
+      </c>
+      <c r="F3" t="str">
+        <v>212.239.122</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>VCS_33</v>
+      </c>
+      <c r="B4" t="str">
+        <v>VCS_SMS_33</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Offline</v>
+      </c>
+      <c r="D4" s="5">
+        <v>44853.00662921011</v>
+      </c>
+      <c r="E4" s="6">
         <v>44853.381448381064</v>
       </c>
-      <c r="G3" t="str">
+      <c r="F4" t="str">
         <v>212.239.122</v>
       </c>
     </row>

--- a/New Server.xlsx
+++ b/New Server.xlsx
@@ -24,7 +24,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none">
         <fgColor/>
@@ -43,8 +43,40 @@
     <fill/>
     <fill/>
     <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
   </fills>
-  <borders count="7">
+  <borders count="11">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -98,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="1" fillId="2" fontId="0" numFmtId="22" xfId="0">
       <alignment/>
@@ -116,6 +148,18 @@
       <alignment/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="6" fillId="7" fontId="0" numFmtId="22" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="7" fillId="8" fontId="0" numFmtId="22" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="8" fillId="9" fontId="0" numFmtId="22" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="9" fillId="10" fontId="0" numFmtId="22" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="10" fillId="11" fontId="0" numFmtId="22" xfId="0">
       <alignment/>
     </xf>
   </cellXfs>
@@ -413,39 +457,39 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>VCS_60</v>
+        <v>VCS_14</v>
       </c>
       <c r="B2" t="str">
-        <v>VCS_SMS_60</v>
+        <v>VCS_SMS_14</v>
       </c>
       <c r="C2" t="str">
         <v>Offline</v>
       </c>
       <c r="D2" s="1">
-        <v>44853.38984134547</v>
+        <v>-53080.76132952946</v>
       </c>
       <c r="E2" s="2">
-        <v>44853.38984134547</v>
+        <v>-53080.76132952946</v>
       </c>
       <c r="F2" t="str">
-        <v>192.168.1.204</v>
+        <v>212.239.122</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>VCS_6</v>
+        <v>VCS_62</v>
       </c>
       <c r="B3" t="str">
-        <v>VCS_SMS_6</v>
+        <v>VCS_SMS_68</v>
       </c>
       <c r="C3" t="str">
         <v>Offline</v>
       </c>
       <c r="D3" s="3">
-        <v>44853.00662921011</v>
+        <v>-53080.76132952946</v>
       </c>
       <c r="E3" s="4">
-        <v>44853.38144860696</v>
+        <v>-53080.76132952946</v>
       </c>
       <c r="F3" t="str">
         <v>212.239.122</v>
@@ -453,22 +497,62 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>VCS_33</v>
+        <v>VCS_13</v>
       </c>
       <c r="B4" t="str">
-        <v>VCS_SMS_33</v>
+        <v>VCS_SMS_13</v>
       </c>
       <c r="C4" t="str">
         <v>Offline</v>
       </c>
       <c r="D4" s="5">
-        <v>44853.00662921011</v>
+        <v>-53080.76132952946</v>
       </c>
       <c r="E4" s="6">
-        <v>44853.381448381064</v>
+        <v>-53080.76132952946</v>
       </c>
       <c r="F4" t="str">
         <v>212.239.122</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>VCS_36</v>
+      </c>
+      <c r="B5" t="str">
+        <v>VCS_SMS_36</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Offline</v>
+      </c>
+      <c r="D5" s="7">
+        <v>-53080.76132952946</v>
+      </c>
+      <c r="E5" s="8">
+        <v>-53080.76132952946</v>
+      </c>
+      <c r="F5" t="str">
+        <v>212.239.122</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>VCS_7</v>
+      </c>
+      <c r="B6" t="str">
+        <v>VCS_SMS_7</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Online</v>
+      </c>
+      <c r="D6" s="9">
+        <v>-53080.76132952946</v>
+      </c>
+      <c r="E6" s="10">
+        <v>-53080.76132952946</v>
+      </c>
+      <c r="F6" t="str">
+        <v>192.168.1.204</v>
       </c>
     </row>
   </sheetData>
